--- a/Iteration2Revised/WorkItemsList_ReserveWell.xlsx
+++ b/Iteration2Revised/WorkItemsList_ReserveWell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezgitunali/Desktop/Master/3.SEMESTER/IS502/Project/Iteration_2_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F51AC-F9F3-D746-87EF-FE5A0F826FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398BA71-C9A8-C541-A3C0-ABB87A065B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,9 +279,6 @@
     <t>RegisterR</t>
   </si>
   <si>
-    <t>Manage Reservations - güncelle feedbacke göre</t>
-  </si>
-  <si>
     <t>Create iteration plans</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>&lt;UC8_Display Reservations (Restaurant Manager).pdf&gt;</t>
   </si>
   <si>
-    <t>&lt;UC9_Manage Reservations.pdf&gt;</t>
-  </si>
-  <si>
     <t>&lt;UC10_Edit Working Hours.pdf&gt;</t>
   </si>
   <si>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>&lt;UC2_Make Reservation.pdf&gt;</t>
+  </si>
+  <si>
+    <t>Make Reservation upon Wishlist Availability</t>
+  </si>
+  <si>
+    <t>&lt;UC9_Make Reservation upon Wishlist Availability.pdf&gt;</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -621,18 +621,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C69BA1-DCE4-9347-82C5-951C20EFC59C}">
   <dimension ref="A1:AD1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="158" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -950,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="4"/>
@@ -1000,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
@@ -1050,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
@@ -1098,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="4"/>
@@ -1148,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="10"/>
@@ -1430,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="4"/>
@@ -1456,7 +1449,7 @@
     </row>
     <row r="13" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
@@ -1526,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1574,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="31"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1620,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="31"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1660,9 +1653,9 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="31"/>
+        <v>110</v>
+      </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1708,9 +1701,9 @@
         <v>8</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="31"/>
+        <v>127</v>
+      </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1756,9 +1749,9 @@
         <v>5</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="31"/>
+        <v>111</v>
+      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1804,9 +1797,9 @@
         <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="31"/>
+        <v>112</v>
+      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1830,7 +1823,7 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6">
         <v>2</v>
@@ -1848,9 +1841,9 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="31"/>
+        <v>113</v>
+      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1896,9 +1889,9 @@
         <v>3</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J22" s="31"/>
+        <v>114</v>
+      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1944,7 +1937,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1990,9 +1983,9 @@
         <v>6</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="31"/>
+        <v>115</v>
+      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -2038,9 +2031,9 @@
         <v>6</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2064,7 +2057,7 @@
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B26" s="6">
         <v>2</v>
@@ -2085,10 +2078,10 @@
       <c r="H26" s="8">
         <v>8</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J26" s="31"/>
+      <c r="I26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -2134,9 +2127,9 @@
         <v>6</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="31"/>
+        <v>117</v>
+      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -2182,9 +2175,9 @@
         <v>5</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J28" s="31"/>
+        <v>118</v>
+      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -2230,9 +2223,9 @@
         <v>5</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="31"/>
+        <v>119</v>
+      </c>
+      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -2278,9 +2271,9 @@
         <v>5</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" s="31"/>
+        <v>120</v>
+      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -2304,7 +2297,7 @@
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
@@ -2328,7 +2321,7 @@
         <v>27</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="31"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -2374,9 +2367,9 @@
         <v>5</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="31"/>
+        <v>121</v>
+      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2422,9 +2415,9 @@
         <v>6</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J33" s="31"/>
+        <v>122</v>
+      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -2470,9 +2463,9 @@
         <v>8</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="32"/>
+        <v>119</v>
+      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -2517,10 +2510,10 @@
       <c r="H35" s="8">
         <v>8</v>
       </c>
-      <c r="I35" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="32"/>
+      <c r="I35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="6"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -2568,7 +2561,7 @@
         <v>24</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="33"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="4"/>
       <c r="L36" s="12"/>
       <c r="M36" s="4"/>
@@ -2614,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="33"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="4"/>
       <c r="L37" s="12"/>
       <c r="M37" s="4"/>
@@ -2660,9 +2653,9 @@
         <v>8</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="J38" s="30"/>
       <c r="K38" s="4"/>
       <c r="L38" s="12"/>
       <c r="M38" s="4"/>
@@ -2686,7 +2679,7 @@
     </row>
     <row r="39" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="6">
         <v>2</v>
@@ -2708,9 +2701,9 @@
         <v>5</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="33"/>
+        <v>105</v>
+      </c>
+      <c r="J39" s="30"/>
       <c r="K39" s="4"/>
       <c r="L39" s="12"/>
       <c r="M39" s="4"/>
@@ -2734,7 +2727,7 @@
     </row>
     <row r="40" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2754,9 +2747,9 @@
         <v>3</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="J40" s="30"/>
       <c r="K40" s="4"/>
       <c r="L40" s="12"/>
       <c r="M40" s="4"/>
@@ -2802,7 +2795,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="33"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="4"/>
       <c r="L41" s="12"/>
       <c r="M41" s="4"/>
@@ -2848,9 +2841,9 @@
         <v>8</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J42" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="J42" s="18"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -2894,9 +2887,9 @@
         <v>5</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J43" s="31"/>
+        <v>98</v>
+      </c>
+      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2942,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="31"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -2990,7 +2983,7 @@
         <v>17</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="32"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="4"/>
       <c r="L45" s="12"/>
       <c r="M45" s="4"/>
@@ -3106,7 +3099,7 @@
     </row>
     <row r="48" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="6">
         <v>1</v>
@@ -3152,7 +3145,7 @@
     </row>
     <row r="49" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -3380,7 +3373,7 @@
     </row>
     <row r="54" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="6">
         <v>2</v>
@@ -3424,7 +3417,7 @@
     </row>
     <row r="55" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3652,7 +3645,7 @@
     </row>
     <row r="60" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="6">
         <v>2</v>
@@ -3698,7 +3691,7 @@
     </row>
     <row r="61" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3922,7 +3915,7 @@
     </row>
     <row r="66" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="6">
         <v>2</v>
@@ -3966,7 +3959,7 @@
     </row>
     <row r="67" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4186,7 +4179,7 @@
     </row>
     <row r="72" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" s="6">
         <v>3</v>
@@ -4230,7 +4223,7 @@
     </row>
     <row r="73" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -4494,7 +4487,7 @@
     </row>
     <row r="79" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" s="6">
         <v>3</v>
@@ -4538,7 +4531,7 @@
     </row>
     <row r="80" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -4624,7 +4617,7 @@
     </row>
     <row r="82" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="6">
         <v>2</v>
@@ -4664,7 +4657,7 @@
     </row>
     <row r="83" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6">
         <v>2</v>
@@ -4704,7 +4697,7 @@
     </row>
     <row r="84" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6">
         <v>2</v>
@@ -4744,7 +4737,7 @@
     </row>
     <row r="85" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="6">
         <v>2</v>
@@ -4784,7 +4777,7 @@
     </row>
     <row r="86" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="6">
         <v>2</v>
@@ -4826,7 +4819,7 @@
     </row>
     <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="6">
         <v>1</v>
@@ -4872,7 +4865,7 @@
     </row>
     <row r="88" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="6">
         <v>1</v>
@@ -4894,12 +4887,12 @@
         <v>6</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="30" t="s">
-        <v>110</v>
+      <c r="L88" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -4922,7 +4915,7 @@
     </row>
     <row r="89" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="6">
         <v>2</v>
@@ -4944,11 +4937,11 @@
         <v>6</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="30"/>
+      <c r="L89" s="31"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -4970,7 +4963,7 @@
     </row>
     <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="6">
         <v>2</v>
@@ -4992,11 +4985,11 @@
         <v>6</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="30"/>
+      <c r="L90" s="31"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -5018,7 +5011,7 @@
     </row>
     <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="6">
         <v>3</v>
@@ -5042,7 +5035,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="30"/>
+      <c r="L91" s="31"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -5782,7 +5775,7 @@
     </row>
     <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" s="6">
         <v>5</v>
@@ -5805,7 +5798,7 @@
       <c r="J108" s="6"/>
       <c r="K108" s="4"/>
       <c r="L108" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>

--- a/Iteration2Revised/WorkItemsList_ReserveWell.xlsx
+++ b/Iteration2Revised/WorkItemsList_ReserveWell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezgitunali/Desktop/Master/3.SEMESTER/IS502/Project/Iteration_2_Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398BA71-C9A8-C541-A3C0-ABB87A065B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E84D4-6249-314B-8BC0-0D2E8567C952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29920" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReserveWell" sheetId="2" r:id="rId1"/>
@@ -315,9 +315,6 @@
     <t>Define developer test artifact</t>
   </si>
   <si>
-    <t>Manage Notifications</t>
-  </si>
-  <si>
     <t>&lt;SystemWideRequirements.pdf&gt;</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>&lt;UC4_Exit From the Waitlist.pdf&gt;</t>
   </si>
   <si>
-    <t>&lt;UC5_Manage Notifications.pdf&gt;</t>
-  </si>
-  <si>
     <t>&lt;UC6_Rate the Restaurant.pdf&gt;</t>
   </si>
   <si>
@@ -417,7 +411,13 @@
     <t>Make Reservation upon Wishlist Availability</t>
   </si>
   <si>
-    <t>&lt;UC9_Make Reservation upon Wishlist Availability.pdf&gt;</t>
+    <t>&lt;UC5_Make Reservation upon Wishlist Availability.pdf&gt;</t>
+  </si>
+  <si>
+    <t>Manage Reservations</t>
+  </si>
+  <si>
+    <t>&lt;UC9_Manage Reservations.pdf&gt;</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -626,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C69BA1-DCE4-9347-82C5-951C20EFC59C}">
   <dimension ref="A1:AD1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -943,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="4"/>
@@ -993,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
@@ -1043,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
@@ -1091,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="4"/>
@@ -1141,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="10"/>
@@ -1423,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="4"/>
@@ -1449,7 +1452,7 @@
     </row>
     <row r="13" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
@@ -1653,7 +1656,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1701,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1748,8 +1751,8 @@
       <c r="H19" s="8">
         <v>5</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>111</v>
+      <c r="I19" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1797,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1823,7 +1826,7 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B21" s="6">
         <v>2</v>
@@ -1841,7 +1844,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="6" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1889,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1983,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2031,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2127,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2175,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2223,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2271,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
@@ -2367,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2415,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2463,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
@@ -2511,7 +2514,7 @@
         <v>8</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
@@ -2653,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="4"/>
@@ -2701,7 +2704,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J39" s="30"/>
       <c r="K39" s="4"/>
@@ -2747,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="30"/>
       <c r="K40" s="4"/>
@@ -2841,7 +2844,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J42" s="18"/>
       <c r="K42" s="4"/>
@@ -2887,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -4887,12 +4890,12 @@
         <v>6</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="4"/>
       <c r="L88" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -4937,7 +4940,7 @@
         <v>6</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="4"/>
@@ -4985,7 +4988,7 @@
         <v>6</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="4"/>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B108" s="6">
         <v>5</v>
@@ -5798,7 +5801,7 @@
       <c r="J108" s="6"/>
       <c r="K108" s="4"/>
       <c r="L108" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
